--- a/backend/downloads/data.xlsx
+++ b/backend/downloads/data.xlsx
@@ -944,16 +944,16 @@
       <c r="A5" s="1" t="str">
         <v>TargetYear</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
+      <c r="B5" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
         <v>TargetRevenue</v>
       </c>
-      <c r="B6" s="1">
-        <v>25000</v>
+      <c r="B6" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -984,8 +984,8 @@
       <c r="A10" s="1" t="str">
         <v>upfrontfixedfee</v>
       </c>
-      <c r="B10" s="1">
-        <v>15000</v>
+      <c r="B10" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">

--- a/backend/downloads/data.xlsx
+++ b/backend/downloads/data.xlsx
@@ -431,7 +431,7 @@
         <v>costTitle</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>cost</v>
+        <v>X-Scale Cost</v>
       </c>
     </row>
     <row r="6">
@@ -439,7 +439,7 @@
         <v>description</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>Xscale</v>
+        <v>All about Pricing</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +447,7 @@
         <v>ProductName</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>Xscale</v>
+        <v>X-Pricing</v>
       </c>
     </row>
     <row r="8">
@@ -463,7 +463,7 @@
         <v>upFrontProductDevelopmentCost</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -471,7 +471,7 @@
         <v>ongoingproductdevelopmentCost</v>
       </c>
       <c r="B10" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -479,7 +479,7 @@
         <v>otherFixedAdminCost</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -487,7 +487,7 @@
         <v>otherFixedInfrastructureCost</v>
       </c>
       <c r="B12" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         <v>upfrontImplementationCostPerCustomer</v>
       </c>
       <c r="B13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -503,7 +503,7 @@
         <v>salesAndMarketingCost</v>
       </c>
       <c r="B14" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -511,7 +511,7 @@
         <v>extraCostSpace1</v>
       </c>
       <c r="B15" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -519,7 +519,7 @@
         <v>extraCostSpace2</v>
       </c>
       <c r="B16" s="1">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -527,7 +527,7 @@
         <v>infrastructureBasedCostPerUserPerYear</v>
       </c>
       <c r="B17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -535,7 +535,7 @@
         <v>ImplementationCostPerUser</v>
       </c>
       <c r="B18" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -543,7 +543,7 @@
         <v>supportCostPerYearPerUser</v>
       </c>
       <c r="B19" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -551,7 +551,7 @@
         <v>incrementalSaledAndMarketingCostPerUser</v>
       </c>
       <c r="B20" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -559,7 +559,7 @@
         <v>costOfCapital</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -567,7 +567,7 @@
         <v>otherVariableCost</v>
       </c>
       <c r="B22" s="1">
-        <v>583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -575,7 +575,7 @@
         <v>product_development_cost_y1</v>
       </c>
       <c r="B23" s="1">
-        <v>5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="24">
@@ -583,7 +583,7 @@
         <v>product_development_cost_y2</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="25">
@@ -591,7 +591,7 @@
         <v>product_development_cost_y3</v>
       </c>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="26">
@@ -599,7 +599,7 @@
         <v>product_development_cost_y4</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -607,7 +607,7 @@
         <v>product_development_cost_y5</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -615,7 +615,7 @@
         <v>admin_cost_y1</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -623,7 +623,7 @@
         <v>admin_cost_y2</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -631,7 +631,7 @@
         <v>admin_cost_y3</v>
       </c>
       <c r="B30" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -639,7 +639,7 @@
         <v>admin_cost_y4</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -647,257 +647,407 @@
         <v>admin_cost_y5</v>
       </c>
       <c r="B32" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
         <v>infrastructure_cost_y1</v>
       </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
         <v>infrastructure_cost_y2</v>
       </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
         <v>infrastructure_cost_y3</v>
       </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
         <v>infrastructure_cost_y4</v>
       </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
         <v>infrastructure_cost_y5</v>
       </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
         <v>sales_marketing_y1</v>
       </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
         <v>sales_marketing_y2</v>
       </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
         <v>sales_marketing_y3</v>
       </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
         <v>sales_marketing_y4</v>
       </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
         <v>sales_marketing_y5</v>
       </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
         <v>fixed_cost1_y1</v>
       </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
         <v>fixed_cost1_y2</v>
       </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
         <v>fixed_cost1_y3</v>
       </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
         <v>fixed_cost1_y4</v>
       </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
         <v>fixed_cost1_y5</v>
       </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
         <v>fixed_cost2_y1</v>
       </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
         <v>fixed_cost2_y2</v>
       </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
         <v>fixed_cost2_y3</v>
       </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
         <v>fixed_cost2_y4</v>
       </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
         <v>fixed_cost2_y5</v>
       </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
         <v>implementation_cost_y1</v>
       </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
         <v>implementation_cost_y2</v>
       </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
         <v>implementation_cost_y3</v>
       </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
         <v>implementation_cost_y4</v>
       </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
         <v>implementation_cost_y5</v>
       </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
         <v>usage_based_cost_y1</v>
       </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
         <v>usage_based_cost_y2</v>
       </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
         <v>usage_based_cost_y3</v>
       </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
         <v>usage_based_cost_y4</v>
       </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="str">
         <v>usage_based_cost_y5</v>
       </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="str">
         <v>onboarding_cost_per_user_y1</v>
       </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
         <v>onboarding_cost_per_user_y2</v>
       </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="str">
         <v>onboarding_cost_per_user_y3</v>
       </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="str">
         <v>onboarding_cost_per_user_y4</v>
       </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="str">
         <v>onboarding_cost_per_user_y5</v>
       </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="str">
         <v>support_cost_per_user_y1</v>
       </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="str">
         <v>support_cost_per_user_y2</v>
       </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="str">
         <v>support_cost_per_user_y3</v>
       </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="str">
         <v>support_cost_per_user_y4</v>
       </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="str">
         <v>support_cost_per_user_y5</v>
       </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="str">
         <v>incremental_sales_cost_y1</v>
       </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="str">
         <v>incremental_sales_cost_y2</v>
       </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="str">
         <v>incremental_sales_cost_y3</v>
       </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="str">
         <v>incremental_sales_cost_y4</v>
       </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
         <v>incremental_sales_cost_y5</v>
       </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="str">
         <v>other_variable_cost_y1</v>
       </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="str">
         <v>other_variable_cost_y2</v>
       </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="str">
         <v>other_variable_cost_y3</v>
       </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="str">
         <v>other_variable_cost_y4</v>
       </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="str">
         <v>other_variable_cost_y5</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -944,166 +1094,174 @@
       <c r="A5" s="1" t="str">
         <v>TargetYear</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v/>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
         <v>TargetRevenue</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v/>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
         <v>TargetMargin</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v/>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
         <v>minProductPriceRange</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v/>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
         <v>maxProductPriceRange</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v/>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
         <v>upfrontfixedfee</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v/>
+      <c r="B10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
         <v>y1PriceGrowth</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v/>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
         <v>y2PriceGrowth</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v/>
+      <c r="B12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
         <v>y3PriceGrowth</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v/>
+      <c r="B13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
         <v>y4PriceGrowth</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v/>
+      <c r="B14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
         <v>y5PriceGrowth</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v/>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
         <v>mincustomerY1</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <v/>
+      <c r="B16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
         <v>maxcustomerY1</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <v/>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
         <v>y1CustomerGrowth</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <v/>
+      <c r="B18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
         <v>y2CustomerGrowth</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <v/>
+      <c r="B19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
         <v>y3CustomerGrowth</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <v/>
+      <c r="B20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
         <v>y4CustomerGrowth</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <v/>
+      <c r="B21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
         <v>y5CustomerGrowth</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <v/>
+      <c r="B22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
         <v>averagecustomerretention</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <v/>
+      <c r="B23" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
         <v>averagecustomerusage</v>
       </c>
-      <c r="B24" s="1" t="str">
-        <v/>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>subscriptionType</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>monthly</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/downloads/data.xlsx
+++ b/backend/downloads/data.xlsx
@@ -404,6 +404,10 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="30"/>
+    <col min="2" max="2" customWidth="1" width="30"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -431,7 +435,7 @@
         <v>costTitle</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>X-Scale Cost</v>
+        <v>X-Cost</v>
       </c>
     </row>
     <row r="6">
@@ -575,7 +579,7 @@
         <v>product_development_cost_y1</v>
       </c>
       <c r="B23" s="1">
-        <v>10.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
@@ -583,7 +587,7 @@
         <v>product_development_cost_y2</v>
       </c>
       <c r="B24" s="1">
-        <v>11.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -591,7 +595,7 @@
         <v>product_development_cost_y3</v>
       </c>
       <c r="B25" s="1">
-        <v>25.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -599,7 +603,7 @@
         <v>product_development_cost_y4</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -607,7 +611,7 @@
         <v>product_development_cost_y5</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -615,7 +619,7 @@
         <v>admin_cost_y1</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
@@ -623,7 +627,7 @@
         <v>admin_cost_y2</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
@@ -631,7 +635,7 @@
         <v>admin_cost_y3</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
@@ -639,7 +643,7 @@
         <v>admin_cost_y4</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -647,7 +651,7 @@
         <v>admin_cost_y5</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33">
@@ -655,7 +659,7 @@
         <v>infrastructure_cost_y1</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
@@ -663,7 +667,7 @@
         <v>infrastructure_cost_y2</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
@@ -671,7 +675,7 @@
         <v>infrastructure_cost_y3</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36">
@@ -679,7 +683,7 @@
         <v>infrastructure_cost_y4</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
@@ -687,7 +691,7 @@
         <v>infrastructure_cost_y5</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
@@ -695,7 +699,7 @@
         <v>sales_marketing_y1</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="39">
@@ -703,7 +707,7 @@
         <v>sales_marketing_y2</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="40">
@@ -711,7 +715,7 @@
         <v>sales_marketing_y3</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
@@ -719,7 +723,7 @@
         <v>sales_marketing_y4</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="42">
@@ -727,7 +731,7 @@
         <v>sales_marketing_y5</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="43">
@@ -743,7 +747,7 @@
         <v>fixed_cost1_y2</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="45">
@@ -1064,10 +1068,6 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" customWidth="1" width="30"/>
-    <col min="2" max="2" customWidth="1" width="30"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -1095,7 +1095,7 @@
         <v>TargetYear</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1103,7 @@
         <v>TargetRevenue</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1111,7 @@
         <v>TargetMargin</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>minProductPriceRange</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1127,7 @@
         <v>maxProductPriceRange</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -1135,7 +1135,7 @@
         <v>upfrontfixedfee</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11">
@@ -1143,7 +1143,7 @@
         <v>y1PriceGrowth</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
@@ -1151,7 +1151,7 @@
         <v>y2PriceGrowth</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1159,7 @@
         <v>y3PriceGrowth</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
@@ -1167,7 +1167,7 @@
         <v>y4PriceGrowth</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
@@ -1175,7 +1175,7 @@
         <v>y5PriceGrowth</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -1183,7 +1183,7 @@
         <v>mincustomerY1</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1191,7 +1191,7 @@
         <v>maxcustomerY1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -1199,7 +1199,7 @@
         <v>y1CustomerGrowth</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
@@ -1207,7 +1207,7 @@
         <v>y2CustomerGrowth</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
@@ -1215,7 +1215,7 @@
         <v>y3CustomerGrowth</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
@@ -1223,7 +1223,7 @@
         <v>y4CustomerGrowth</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>y5CustomerGrowth</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
@@ -1239,7 +1239,7 @@
         <v>averagecustomerretention</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
@@ -1247,7 +1247,7 @@
         <v>averagecustomerusage</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1255,7 +1255,7 @@
         <v>subscriptionType</v>
       </c>
       <c r="B25" s="1" t="str">
-        <v>monthly</v>
+        <v>annual</v>
       </c>
     </row>
   </sheetData>

--- a/backend/downloads/data.xlsx
+++ b/backend/downloads/data.xlsx
@@ -404,10 +404,6 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" customWidth="1" width="30"/>
-    <col min="2" max="2" customWidth="1" width="30"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -1068,6 +1064,10 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="30"/>
+    <col min="2" max="2" customWidth="1" width="30"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -1095,7 +1095,7 @@
         <v>TargetYear</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1103,7 @@
         <v>TargetRevenue</v>
       </c>
       <c r="B6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1111,7 @@
         <v>TargetMargin</v>
       </c>
       <c r="B7" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>minProductPriceRange</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1127,7 @@
         <v>maxProductPriceRange</v>
       </c>
       <c r="B9" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1135,7 +1135,7 @@
         <v>upfrontfixedfee</v>
       </c>
       <c r="B10" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1143,7 +1143,7 @@
         <v>y1PriceGrowth</v>
       </c>
       <c r="B11" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1151,7 +1151,7 @@
         <v>y2PriceGrowth</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1159,7 @@
         <v>y3PriceGrowth</v>
       </c>
       <c r="B13" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1167,7 +1167,7 @@
         <v>y4PriceGrowth</v>
       </c>
       <c r="B14" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1175,7 +1175,7 @@
         <v>y5PriceGrowth</v>
       </c>
       <c r="B15" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1183,7 +1183,7 @@
         <v>mincustomerY1</v>
       </c>
       <c r="B16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1191,7 +1191,7 @@
         <v>maxcustomerY1</v>
       </c>
       <c r="B17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1199,7 +1199,7 @@
         <v>y1CustomerGrowth</v>
       </c>
       <c r="B18" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1207,7 +1207,7 @@
         <v>y2CustomerGrowth</v>
       </c>
       <c r="B19" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1215,7 +1215,7 @@
         <v>y3CustomerGrowth</v>
       </c>
       <c r="B20" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1223,7 +1223,7 @@
         <v>y4CustomerGrowth</v>
       </c>
       <c r="B21" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>y5CustomerGrowth</v>
       </c>
       <c r="B22" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1239,7 +1239,7 @@
         <v>averagecustomerretention</v>
       </c>
       <c r="B23" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1247,7 +1247,7 @@
         <v>averagecustomerusage</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
